--- a/subreservoir_plan.xlsx
+++ b/subreservoir_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malte/Documents/global_scripts/pypetting_experiments/CombinationExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60BAF55-BCA2-1849-B093-92963493BB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4B29F-BECF-4F4F-A721-513028C0AA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22200" windowHeight="20940" xr2:uid="{B377A01E-D110-A346-BD0F-B09DDD787458}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>A_sub min</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>total vol</t>
+  </si>
+  <si>
+    <t>Used A</t>
+  </si>
+  <si>
+    <t>Used B</t>
   </si>
 </sst>
 </file>
@@ -104,8 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,158 +449,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6DC0B0-5074-A14F-9149-743357EEF67E}">
-  <dimension ref="A1:F7"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>(B2+C2)*125*8+(D2+E2)*100*6</f>
+      <c r="G2" s="1">
+        <f>(B2+C2)*125*8+(E2+F2)*100*6</f>
         <v>7000</v>
       </c>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F7" si="0">(B3+C3)*125*8+(D3+E3)*100*6</f>
+      <c r="G3" s="1">
+        <f>(B3+C3)*125*8+(E3+F3)*100*6</f>
         <v>7200</v>
       </c>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <f>(B4+C4)*125*8+(E4+F4)*100*6</f>
         <v>7400</v>
       </c>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <f>(B5+C5)*125*8+(E5+F5)*100*6</f>
         <v>7000</v>
       </c>
+      <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
+      <c r="G6" s="1">
+        <f>(B6+C6)*125*8+(E6+F6)*100*6</f>
         <v>7200</v>
       </c>
+      <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
+      <c r="G7" s="1">
+        <f>(B7+C7)*125*8+(E7+F7)*100*6</f>
         <v>7200</v>
       </c>
+      <c r="H7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/subreservoir_plan.xlsx
+++ b/subreservoir_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malte/Documents/global_scripts/pypetting_experiments/CombinationExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4B29F-BECF-4F4F-A721-513028C0AA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FB579E-87B6-8347-BCAD-10EE5C3003B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22200" windowHeight="20940" xr2:uid="{B377A01E-D110-A346-BD0F-B09DDD787458}"/>
+    <workbookView xWindow="51520" yWindow="500" windowWidth="22200" windowHeight="20940" xr2:uid="{B377A01E-D110-A346-BD0F-B09DDD787458}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>A_sub min</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>total vol</t>
-  </si>
-  <si>
-    <t>Used A</t>
-  </si>
-  <si>
-    <t>Used B</t>
   </si>
 </sst>
 </file>
@@ -452,15 +446,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -468,23 +462,17 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -492,21 +480,20 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <f>(B2+C2)*125*8+(E2+F2)*100*6</f>
-        <v>7000</v>
-      </c>
-      <c r="H2" s="1"/>
+        <f t="shared" ref="F2:F7" si="0">(B2+C2)*125*8+(D2+E2)*100*6</f>
+        <v>8000</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -514,21 +501,20 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <f>(B3+C3)*125*8+(E3+F3)*100*6</f>
-        <v>7200</v>
-      </c>
-      <c r="H3" s="1"/>
+        <f t="shared" si="0"/>
+        <v>8200</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -536,21 +522,20 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <f>(B4+C4)*125*8+(E4+F4)*100*6</f>
-        <v>7400</v>
-      </c>
-      <c r="H4" s="1"/>
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -560,19 +545,18 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <f>(B5+C5)*125*8+(E5+F5)*100*6</f>
-        <v>7000</v>
-      </c>
-      <c r="H5" s="1"/>
+        <f t="shared" si="0"/>
+        <v>8200</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -582,19 +566,18 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
       <c r="E6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <f>(B6+C6)*125*8+(E6+F6)*100*6</f>
-        <v>7200</v>
-      </c>
-      <c r="H6" s="1"/>
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -604,17 +587,16 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1">
-        <f>(B7+C7)*125*8+(E7+F7)*100*6</f>
-        <v>7200</v>
-      </c>
-      <c r="H7" s="1"/>
+        <f t="shared" si="0"/>
+        <v>7800</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
